--- a/raw_assets/2019_game_data_v1.xlsx
+++ b/raw_assets/2019_game_data_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aroof\OneDrive - Massey High School\Documents\Databases\L2\L2_DB_Practice_task\raw_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C650AB17-A50F-4764-9D63-9B41C7A9CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC8A522-3238-40CD-8431-D5DBC8FE17C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="705" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -5173,7 +5173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16904,7 +16906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6F9935-C152-4003-BD15-9CD8E64A53E4}">
   <dimension ref="A1:S243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
